--- a/002 - lab2/Результат.xlsx
+++ b/002 - lab2/Результат.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D214E5B-1291-FD4B-90EA-C9587E7CADEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7496D1-CCDD-B846-B4C5-6F9406B1B9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23500" yWindow="5440" windowWidth="42580" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23980" yWindow="3740" windowWidth="42580" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,44 @@
   </si>
   <si>
     <t>2.1 РАВНОМЕРНОЕ РАСПРЕДЕЛЕНИЕ (дискретное)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRNBNL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRNGEO_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRNGEO_2</t>
+  </si>
+  <si>
+    <t>IRNGEO_3</t>
+  </si>
+  <si>
+    <t>IRNPOI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Момент</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRNPSN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +136,19 @@
       <color theme="1"/>
       <name val="Times Roman"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -257,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -286,13 +337,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -575,38 +638,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J20"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10" style="11"/>
-    <col min="2" max="2" width="8.6640625" style="12" customWidth="1"/>
-    <col min="3" max="5" width="18.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10" style="11"/>
-    <col min="7" max="7" width="8.6640625" style="11" customWidth="1"/>
-    <col min="8" max="10" width="18.33203125" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="10" style="11"/>
+    <col min="1" max="1" width="10" style="10"/>
+    <col min="2" max="2" width="8.6640625" style="11" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="10" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="16" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10" style="10"/>
+    <col min="11" max="13" width="14.83203125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="16" style="10" customWidth="1"/>
+    <col min="15" max="15" width="10" style="10"/>
+    <col min="16" max="17" width="14.83203125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="16" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="10" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23" customHeight="1" thickBot="1">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:18" ht="23" customHeight="1" thickBot="1">
+      <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="2:10" ht="40" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" ht="36" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
@@ -619,20 +688,13 @@
       <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="23" customHeight="1" thickTop="1">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" ht="23" customHeight="1" thickTop="1">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
@@ -641,16 +703,13 @@
       <c r="E3" s="2">
         <v>50.5</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="23" customHeight="1" thickBot="1">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" ht="23" customHeight="1" thickBot="1">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -659,112 +718,170 @@
       <c r="E4" s="4">
         <v>833.25</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="23" customHeight="1" thickTop="1">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:18" ht="23" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" s="11"/>
+      <c r="F5" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="2:10" ht="23" customHeight="1">
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="2:10" ht="23" customHeight="1" thickBot="1">
-      <c r="B7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="G7" s="10" t="s">
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:18" ht="36" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="11"/>
+      <c r="F6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" ht="23" customHeight="1" thickTop="1">
+      <c r="A7" s="11"/>
+      <c r="F7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" ht="23" customHeight="1" thickBot="1">
+      <c r="A8" s="11"/>
+      <c r="F8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="23" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="11"/>
+      <c r="J9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:18" ht="36" customHeight="1" thickTop="1" thickBot="1">
+      <c r="J10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="23" customHeight="1" thickTop="1">
+      <c r="J11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="23" customHeight="1" thickBot="1">
+      <c r="J12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="23" customHeight="1" thickTop="1" thickBot="1">
+      <c r="O13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="2:10" ht="40" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" spans="1:18" ht="36" customHeight="1" thickTop="1" thickBot="1">
+      <c r="O14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="23" customHeight="1" thickTop="1">
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="15" spans="1:18" ht="23" customHeight="1" thickTop="1">
+      <c r="O15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="23" customHeight="1" thickBot="1">
-      <c r="B10" s="9" t="s">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1">
+        <v>10.9665</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="23" customHeight="1" thickBot="1">
+      <c r="O16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="23" customHeight="1" thickTop="1"/>
-    <row r="14" spans="2:10" ht="40" customHeight="1"/>
-    <row r="20" ht="40" customHeight="1"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3">
+        <v>9.7831777500000001</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="23" customHeight="1" thickTop="1"/>
+    <row r="18" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="F5:I5"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="J9:N9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/002 - lab2/Результат.xlsx
+++ b/002 - lab2/Результат.xlsx
@@ -3,24 +3,34 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7496D1-CCDD-B846-B4C5-6F9406B1B9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42482DF9-EC5B-0D4E-AF2C-56A897819CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23980" yWindow="3740" windowWidth="42580" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="69480" yWindow="9240" windowWidth="68800" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="23">
   <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,29 +85,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>IRNPOI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Момент</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRNPSN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>IRNGEO_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IRNGEO_3</t>
-  </si>
-  <si>
-    <t>IRNPOI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Момент</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRNPSN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 ГЕОМЕТРИЧЕСКОЕ РАСПРЕДЕЛЕНИЕ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 РАСПРЕДЕЛЕНИЕ ПУАССОНА</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,6 +129,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -150,15 +177,21 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -304,11 +337,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -356,6 +402,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -638,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="138" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -676,6 +737,9 @@
       <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:18" ht="36" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
@@ -698,8 +762,13 @@
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1">
+        <v>51.535600000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <f>E3-C3</f>
+        <v>-1.0356000000000023</v>
+      </c>
       <c r="E3" s="2">
         <v>50.5</v>
       </c>
@@ -713,8 +782,13 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3">
+        <v>834.33933263999904</v>
+      </c>
+      <c r="D4" s="3">
+        <f>E4-C4</f>
+        <v>-1.0893326399990428</v>
+      </c>
       <c r="E4" s="4">
         <v>833.25</v>
       </c>
@@ -738,6 +812,9 @@
     </row>
     <row r="6" spans="1:18" ht="36" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="11"/>
+      <c r="E6" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="5" t="s">
         <v>2</v>
       </c>
@@ -759,8 +836,13 @@
       <c r="F7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1">
+        <v>5.0134999999999996</v>
+      </c>
+      <c r="H7" s="17">
+        <f>I7-G7</f>
+        <v>-1.3499999999999623E-2</v>
+      </c>
       <c r="I7" s="13" t="s">
         <v>11</v>
       </c>
@@ -773,14 +855,25 @@
       <c r="F8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="3">
+        <v>2.4975177400000002</v>
+      </c>
+      <c r="H8" s="21">
+        <f>I8-G8</f>
+        <v>2.4822599999998474E-3</v>
+      </c>
       <c r="I8" s="14">
         <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="23" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="11"/>
+      <c r="B9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
       <c r="J9" s="15" t="s">
         <v>7</v>
       </c>
@@ -790,45 +883,104 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:18" ht="36" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="J10" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="23" customHeight="1" thickTop="1">
+      <c r="B11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.9886999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <f>E11-C11</f>
+        <v>1.1300000000000088E-2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>2</v>
+      </c>
       <c r="J11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="K11" s="1">
+        <v>1.9886999999999999</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2.0099</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2.3980000000000001</v>
+      </c>
       <c r="N11" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="23" customHeight="1" thickBot="1">
+      <c r="B12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.97717231</v>
+      </c>
+      <c r="D12" s="3">
+        <f>E12-C12</f>
+        <v>2.2827689999999956E-2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>2</v>
+      </c>
       <c r="J12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="K12" s="3">
+        <v>1.97717231</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2.0094019799999998</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2.1724571099999999</v>
+      </c>
       <c r="N12" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="23" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
       <c r="O13" s="15" t="s">
         <v>8</v>
       </c>
@@ -837,48 +989,264 @@
       <c r="R13" s="12"/>
     </row>
     <row r="14" spans="1:18" ht="36" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="O14" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="23" customHeight="1" thickTop="1">
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.0099</v>
+      </c>
+      <c r="D15" s="1">
+        <f>E15-C15</f>
+        <v>-9.9000000000000199E-3</v>
+      </c>
+      <c r="E15" s="18">
+        <v>2</v>
+      </c>
       <c r="O15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="1"/>
+      <c r="P15" s="1">
+        <v>10.9642</v>
+      </c>
       <c r="Q15" s="1">
         <v>10.9665</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="23" customHeight="1" thickBot="1">
+      <c r="B16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2.0094019799999998</v>
+      </c>
+      <c r="D16" s="3">
+        <f>E16-C16</f>
+        <v>-9.4019799999998099E-3</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2</v>
+      </c>
       <c r="O16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="P16" s="3"/>
+      <c r="P16" s="3">
+        <v>10.090918350000001</v>
+      </c>
       <c r="Q16" s="3">
         <v>9.7831777500000001</v>
       </c>
       <c r="R16" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="23" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" ht="40" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="23" customHeight="1" thickTop="1">
+      <c r="B19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.3980000000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <f>E19-C19</f>
+        <v>-0.39800000000000013</v>
+      </c>
+      <c r="E19" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="23" customHeight="1" thickBot="1">
+      <c r="B20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2.1724571099999999</v>
+      </c>
+      <c r="D20" s="3">
+        <f>E20-C20</f>
+        <v>-0.17245710999999986</v>
+      </c>
+      <c r="E20" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="23" customHeight="1" thickTop="1"/>
+    <row r="23" spans="1:5" ht="23" customHeight="1" thickBot="1">
+      <c r="B23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" ht="40" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="23" customHeight="1" thickTop="1">
+      <c r="B25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10.9642</v>
+      </c>
+      <c r="D25" s="1">
+        <f>E25-C25</f>
+        <v>-0.96419999999999995</v>
+      </c>
+      <c r="E25" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="23" customHeight="1" thickBot="1">
+      <c r="B26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10.090918350000001</v>
+      </c>
+      <c r="D26" s="3">
+        <f>E26-C26</f>
+        <v>-9.0918350000000814E-2</v>
+      </c>
+      <c r="E26" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="23" customHeight="1" thickTop="1"/>
+    <row r="28" spans="1:5" ht="23" customHeight="1" thickBot="1">
+      <c r="B28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" ht="40" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" ht="23" customHeight="1" thickTop="1"/>
-    <row r="18" ht="40" customHeight="1"/>
+      <c r="D29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="23" customHeight="1" thickTop="1">
+      <c r="B30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>10.9665</v>
+      </c>
+      <c r="D30" s="1">
+        <f>E30-C30</f>
+        <v>-0.96649999999999991</v>
+      </c>
+      <c r="E30" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="23" customHeight="1" thickBot="1">
+      <c r="B31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>9.7831777500000001</v>
+      </c>
+      <c r="D31" s="3">
+        <f>E31-C31</f>
+        <v>0.21682224999999988</v>
+      </c>
+      <c r="E31" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="23" customHeight="1" thickTop="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="B28:E28"/>
     <mergeCell ref="O13:R13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="J9:N9"/>

--- a/002 - lab2/Результат.xlsx
+++ b/002 - lab2/Результат.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42482DF9-EC5B-0D4E-AF2C-56A897819CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC90E859-2A41-BB44-ADAA-2CF08257CD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69480" yWindow="9240" windowWidth="68800" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33320" yWindow="500" windowWidth="35480" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,34 +389,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -702,7 +702,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:E31"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -724,12 +724,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23" customHeight="1" thickBot="1">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -737,7 +737,7 @@
       <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:18" ht="36" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -800,19 +800,19 @@
     </row>
     <row r="5" spans="1:18" ht="23" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="11"/>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:18" ht="36" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="11"/>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -839,11 +839,11 @@
       <c r="G7" s="1">
         <v>5.0134999999999996</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <f>I7-G7</f>
         <v>-1.3499999999999623E-2</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11"/>
@@ -858,32 +858,32 @@
       <c r="G8" s="3">
         <v>2.4975177400000002</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="19">
         <f>I8-G8</f>
         <v>2.4822599999998474E-3</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="23" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="J9" s="15" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="J9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="1:18" ht="36" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -898,7 +898,7 @@
       <c r="E10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="14" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="6" t="s">
@@ -925,7 +925,7 @@
         <f>E11-C11</f>
         <v>1.1300000000000088E-2</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>2</v>
       </c>
       <c r="J11" s="8" t="s">
@@ -940,7 +940,7 @@
       <c r="M11" s="1">
         <v>2.3980000000000001</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -955,7 +955,7 @@
         <f>E12-C12</f>
         <v>2.2827689999999956E-2</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <v>2</v>
       </c>
       <c r="J12" s="9" t="s">
@@ -970,26 +970,26 @@
       <c r="M12" s="3">
         <v>2.1724571099999999</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="23" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="O13" s="15" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="O13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
     </row>
     <row r="14" spans="1:18" ht="36" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1004,7 +1004,7 @@
       <c r="E14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="16" t="s">
+      <c r="O14" s="14" t="s">
         <v>14</v>
       </c>
       <c r="P14" s="6" t="s">
@@ -1028,7 +1028,7 @@
         <f>E15-C15</f>
         <v>-9.9000000000000199E-3</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>2</v>
       </c>
       <c r="O15" s="8" t="s">
@@ -1040,7 +1040,7 @@
       <c r="Q15" s="1">
         <v>10.9665</v>
       </c>
-      <c r="R15" s="13" t="s">
+      <c r="R15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
         <f>E16-C16</f>
         <v>-9.4019799999998099E-3</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>2</v>
       </c>
       <c r="O16" s="9" t="s">
@@ -1067,20 +1067,20 @@
       <c r="Q16" s="3">
         <v>9.7831777500000001</v>
       </c>
-      <c r="R16" s="14" t="s">
+      <c r="R16" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="23" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" ht="40" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1107,7 +1107,7 @@
         <f>E19-C19</f>
         <v>-0.39800000000000013</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <v>2</v>
       </c>
     </row>
@@ -1122,21 +1122,21 @@
         <f>E20-C20</f>
         <v>-0.17245710999999986</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="23" customHeight="1" thickTop="1"/>
     <row r="23" spans="1:5" ht="23" customHeight="1" thickBot="1">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5" ht="40" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1157,13 +1157,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>10.9642</v>
+        <v>9.9703999999999997</v>
       </c>
       <c r="D25" s="1">
         <f>E25-C25</f>
-        <v>-0.96419999999999995</v>
-      </c>
-      <c r="E25" s="18">
+        <v>2.9600000000000293E-2</v>
+      </c>
+      <c r="E25" s="16">
         <v>10</v>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
         <v>1</v>
       </c>
       <c r="C26" s="3">
-        <v>10.090918350000001</v>
+        <v>9.9841238400000005</v>
       </c>
       <c r="D26" s="3">
         <f>E26-C26</f>
-        <v>-9.0918350000000814E-2</v>
-      </c>
-      <c r="E26" s="19">
+        <v>1.5876159999999473E-2</v>
+      </c>
+      <c r="E26" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="23" customHeight="1" thickTop="1"/>
     <row r="28" spans="1:5" ht="23" customHeight="1" thickBot="1">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" ht="40" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>10.9665</v>
+        <v>9.9903999999999993</v>
       </c>
       <c r="D30" s="1">
         <f>E30-C30</f>
-        <v>-0.96649999999999991</v>
-      </c>
-      <c r="E30" s="18">
+        <v>9.6000000000007191E-3</v>
+      </c>
+      <c r="E30" s="16">
         <v>10</v>
       </c>
     </row>
@@ -1228,28 +1228,28 @@
         <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>9.7831777500000001</v>
+        <v>10.00330784</v>
       </c>
       <c r="D31" s="3">
         <f>E31-C31</f>
-        <v>0.21682224999999988</v>
-      </c>
-      <c r="E31" s="19">
+        <v>-3.3078399999997288E-3</v>
+      </c>
+      <c r="E31" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="23" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="J9:N9"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="O13:R13"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="J9:N9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/002 - lab2/Результат.xlsx
+++ b/002 - lab2/Результат.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC90E859-2A41-BB44-ADAA-2CF08257CD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818F6007-DC10-B54E-BB87-9699B71A1AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33320" yWindow="500" windowWidth="35480" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,10 +413,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="138" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="138" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -724,12 +724,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23" customHeight="1" thickBot="1">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -800,12 +800,12 @@
     </row>
     <row r="5" spans="1:18" ht="23" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="11"/>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -868,19 +868,19 @@
     </row>
     <row r="9" spans="1:18" ht="23" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="J9" s="20" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="J9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:18" ht="36" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="18" t="s">
@@ -975,18 +975,18 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="23" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="O13" s="20" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="O13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:18" ht="36" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="18" t="s">
@@ -1072,12 +1072,12 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="23" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" ht="40" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="18" t="s">
@@ -1101,11 +1101,11 @@
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>2.3980000000000001</v>
+        <v>1.9916</v>
       </c>
       <c r="D19" s="1">
         <f>E19-C19</f>
-        <v>-0.39800000000000013</v>
+        <v>8.3999999999999631E-3</v>
       </c>
       <c r="E19" s="16">
         <v>2</v>
@@ -1116,11 +1116,11 @@
         <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>2.1724571099999999</v>
+        <v>2.0019294400000001</v>
       </c>
       <c r="D20" s="3">
         <f>E20-C20</f>
-        <v>-0.17245710999999986</v>
+        <v>-1.92944000000006E-3</v>
       </c>
       <c r="E20" s="17">
         <v>2</v>
@@ -1128,12 +1128,12 @@
     </row>
     <row r="21" spans="1:5" ht="23" customHeight="1" thickTop="1"/>
     <row r="23" spans="1:5" ht="23" customHeight="1" thickBot="1">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5" ht="40" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="18" t="s">
@@ -1184,12 +1184,12 @@
     </row>
     <row r="27" spans="1:5" ht="23" customHeight="1" thickTop="1"/>
     <row r="28" spans="1:5" ht="23" customHeight="1" thickBot="1">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5" ht="40" customHeight="1" thickTop="1" thickBot="1">
       <c r="A29" s="18" t="s">
